--- a/추가피처데이터/투자자별매매동향(수급)/137310.xlsx
+++ b/추가피처데이터/투자자별매매동향(수급)/137310.xlsx
@@ -1601,43 +1601,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="23" max="23" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="32" max="32" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="33" max="33" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -1869,58 +1869,58 @@
         <v>18</v>
       </c>
       <c r="B6" s="5">
-        <v>7829</v>
+        <v>139386</v>
       </c>
       <c r="C6" s="7">
-        <v>8378</v>
+        <v>149034</v>
       </c>
       <c r="D6" s="9">
-        <v>-549</v>
+        <v>-9648</v>
       </c>
       <c r="E6" s="11">
-        <v>5610</v>
+        <v>103981</v>
       </c>
       <c r="F6" s="13">
-        <v>4775</v>
+        <v>89246</v>
       </c>
       <c r="G6" s="15">
-        <v>835</v>
+        <v>14735</v>
       </c>
       <c r="H6" s="17">
-        <v>407</v>
+        <v>7714</v>
       </c>
       <c r="I6" s="19">
-        <v>671</v>
+        <v>12500</v>
       </c>
       <c r="J6" s="21">
-        <v>-264</v>
+        <v>-4786</v>
       </c>
       <c r="K6" s="23">
-        <v>232</v>
+        <v>4438</v>
       </c>
       <c r="L6" s="25">
-        <v>187</v>
+        <v>3631</v>
       </c>
       <c r="M6" s="27">
-        <v>45</v>
+        <v>807</v>
       </c>
       <c r="N6" s="29">
-        <v>27</v>
+        <v>507</v>
       </c>
       <c r="O6" s="31">
-        <v>66</v>
+        <v>1272</v>
       </c>
       <c r="P6" s="33">
-        <v>-39</v>
+        <v>-765</v>
       </c>
       <c r="Q6" s="35">
-        <v>23</v>
+        <v>408</v>
       </c>
       <c r="R6" s="37">
-        <v>125</v>
+        <v>2242</v>
       </c>
       <c r="S6" s="39">
-        <v>-102</v>
+        <v>-1834</v>
       </c>
       <c r="T6" s="41">
         <v>0</v>
@@ -1932,31 +1932,31 @@
         <v>0</v>
       </c>
       <c r="W6" s="47">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="X6" s="49">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="Y6" s="51">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="Z6" s="53">
-        <v>94</v>
+        <v>1807</v>
       </c>
       <c r="AA6" s="55">
-        <v>238</v>
+        <v>4357</v>
       </c>
       <c r="AB6" s="57">
-        <v>-144</v>
+        <v>-2550</v>
       </c>
       <c r="AC6" s="59">
-        <v>23</v>
+        <v>399</v>
       </c>
       <c r="AD6" s="61">
-        <v>50</v>
+        <v>921</v>
       </c>
       <c r="AE6" s="63">
-        <v>-28</v>
+        <v>-522</v>
       </c>
       <c r="AF6" s="65">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="AI6" s="71">
-        <v>46</v>
+        <v>891</v>
       </c>
       <c r="AJ6" s="73">
-        <v>68</v>
+        <v>1191</v>
       </c>
       <c r="AK6" s="75">
-        <v>-22</v>
+        <v>-300</v>
       </c>
       <c r="AL6" s="77">
-        <v>13892</v>
+        <v>251972</v>
       </c>
     </row>
     <row r="7">
@@ -1985,58 +1985,58 @@
         <v>19</v>
       </c>
       <c r="B7" s="5">
-        <v>4073</v>
+        <v>88444</v>
       </c>
       <c r="C7" s="7">
-        <v>4815</v>
+        <v>104762</v>
       </c>
       <c r="D7" s="9">
-        <v>-742</v>
+        <v>-16318</v>
       </c>
       <c r="E7" s="11">
-        <v>6661</v>
+        <v>147173</v>
       </c>
       <c r="F7" s="13">
-        <v>6282</v>
+        <v>139110</v>
       </c>
       <c r="G7" s="15">
-        <v>379</v>
+        <v>8064</v>
       </c>
       <c r="H7" s="17">
-        <v>701</v>
+        <v>15483</v>
       </c>
       <c r="I7" s="19">
-        <v>364</v>
+        <v>7793</v>
       </c>
       <c r="J7" s="21">
-        <v>338</v>
+        <v>7689</v>
       </c>
       <c r="K7" s="23">
-        <v>276</v>
+        <v>5961</v>
       </c>
       <c r="L7" s="25">
-        <v>238</v>
+        <v>5094</v>
       </c>
       <c r="M7" s="27">
-        <v>38</v>
+        <v>867</v>
       </c>
       <c r="N7" s="29">
-        <v>35</v>
+        <v>776</v>
       </c>
       <c r="O7" s="31">
-        <v>17</v>
+        <v>358</v>
       </c>
       <c r="P7" s="33">
-        <v>18</v>
+        <v>418</v>
       </c>
       <c r="Q7" s="35">
-        <v>82</v>
+        <v>1804</v>
       </c>
       <c r="R7" s="37">
-        <v>49</v>
+        <v>1070</v>
       </c>
       <c r="S7" s="39">
-        <v>32</v>
+        <v>734</v>
       </c>
       <c r="T7" s="41">
         <v>0</v>
@@ -2048,31 +2048,31 @@
         <v>0</v>
       </c>
       <c r="W7" s="47">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="X7" s="49">
         <v>0</v>
       </c>
       <c r="Y7" s="51">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="Z7" s="53">
-        <v>269</v>
+        <v>6089</v>
       </c>
       <c r="AA7" s="55">
-        <v>39</v>
+        <v>842</v>
       </c>
       <c r="AB7" s="57">
-        <v>230</v>
+        <v>5246</v>
       </c>
       <c r="AC7" s="59">
-        <v>28</v>
+        <v>615</v>
       </c>
       <c r="AD7" s="61">
-        <v>20</v>
+        <v>428</v>
       </c>
       <c r="AE7" s="63">
-        <v>8</v>
+        <v>188</v>
       </c>
       <c r="AF7" s="65">
         <v>0</v>
@@ -2084,16 +2084,16 @@
         <v>0</v>
       </c>
       <c r="AI7" s="71">
-        <v>45</v>
+        <v>978</v>
       </c>
       <c r="AJ7" s="73">
-        <v>19</v>
+        <v>413</v>
       </c>
       <c r="AK7" s="75">
-        <v>25</v>
+        <v>565</v>
       </c>
       <c r="AL7" s="77">
-        <v>11480</v>
+        <v>252077</v>
       </c>
     </row>
     <row r="8">
@@ -2101,58 +2101,58 @@
         <v>20</v>
       </c>
       <c r="B8" s="5">
-        <v>4218</v>
+        <v>90591</v>
       </c>
       <c r="C8" s="7">
-        <v>4380</v>
+        <v>94275</v>
       </c>
       <c r="D8" s="9">
-        <v>-163</v>
+        <v>-3685</v>
       </c>
       <c r="E8" s="11">
-        <v>3204</v>
+        <v>69148</v>
       </c>
       <c r="F8" s="13">
-        <v>3066</v>
+        <v>65958</v>
       </c>
       <c r="G8" s="15">
-        <v>138</v>
+        <v>3191</v>
       </c>
       <c r="H8" s="17">
-        <v>374</v>
+        <v>7971</v>
       </c>
       <c r="I8" s="19">
-        <v>314</v>
+        <v>6746</v>
       </c>
       <c r="J8" s="21">
-        <v>60</v>
+        <v>1225</v>
       </c>
       <c r="K8" s="23">
-        <v>245</v>
+        <v>5238</v>
       </c>
       <c r="L8" s="25">
-        <v>217</v>
+        <v>4678</v>
       </c>
       <c r="M8" s="27">
-        <v>27</v>
+        <v>560</v>
       </c>
       <c r="N8" s="29">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="O8" s="31">
-        <v>17</v>
+        <v>378</v>
       </c>
       <c r="P8" s="33">
-        <v>-16</v>
+        <v>-345</v>
       </c>
       <c r="Q8" s="35">
-        <v>28</v>
+        <v>611</v>
       </c>
       <c r="R8" s="37">
-        <v>19</v>
+        <v>403</v>
       </c>
       <c r="S8" s="39">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="T8" s="41">
         <v>0</v>
@@ -2164,31 +2164,31 @@
         <v>0</v>
       </c>
       <c r="W8" s="47">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X8" s="49">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Y8" s="51">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="Z8" s="53">
-        <v>81</v>
+        <v>1693</v>
       </c>
       <c r="AA8" s="55">
-        <v>43</v>
+        <v>914</v>
       </c>
       <c r="AB8" s="57">
-        <v>38</v>
+        <v>779</v>
       </c>
       <c r="AC8" s="59">
-        <v>17</v>
+        <v>387</v>
       </c>
       <c r="AD8" s="61">
-        <v>17</v>
+        <v>361</v>
       </c>
       <c r="AE8" s="63">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AF8" s="65">
         <v>0</v>
@@ -2200,16 +2200,16 @@
         <v>0</v>
       </c>
       <c r="AI8" s="71">
-        <v>27</v>
+        <v>585</v>
       </c>
       <c r="AJ8" s="73">
-        <v>62</v>
+        <v>1315</v>
       </c>
       <c r="AK8" s="75">
-        <v>-35</v>
+        <v>-731</v>
       </c>
       <c r="AL8" s="77">
-        <v>7822</v>
+        <v>168295</v>
       </c>
     </row>
     <row r="9">
@@ -2217,58 +2217,58 @@
         <v>21</v>
       </c>
       <c r="B9" s="5">
-        <v>2177</v>
+        <v>58731</v>
       </c>
       <c r="C9" s="7">
-        <v>2491</v>
+        <v>65976</v>
       </c>
       <c r="D9" s="9">
-        <v>-314</v>
+        <v>-7245</v>
       </c>
       <c r="E9" s="11">
-        <v>2882</v>
+        <v>75788</v>
       </c>
       <c r="F9" s="13">
-        <v>2577</v>
+        <v>69143</v>
       </c>
       <c r="G9" s="15">
-        <v>305</v>
+        <v>6646</v>
       </c>
       <c r="H9" s="17">
-        <v>412</v>
+        <v>11546</v>
       </c>
       <c r="I9" s="19">
-        <v>417</v>
+        <v>11318</v>
       </c>
       <c r="J9" s="21">
-        <v>-5</v>
+        <v>229</v>
       </c>
       <c r="K9" s="23">
-        <v>175</v>
+        <v>4893</v>
       </c>
       <c r="L9" s="25">
-        <v>256</v>
+        <v>7083</v>
       </c>
       <c r="M9" s="27">
-        <v>-81</v>
+        <v>-2189</v>
       </c>
       <c r="N9" s="29">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="O9" s="31">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="P9" s="33">
-        <v>-5</v>
+        <v>-124</v>
       </c>
       <c r="Q9" s="35">
-        <v>34</v>
+        <v>952</v>
       </c>
       <c r="R9" s="37">
-        <v>23</v>
+        <v>599</v>
       </c>
       <c r="S9" s="39">
-        <v>11</v>
+        <v>353</v>
       </c>
       <c r="T9" s="41">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="Z9" s="53">
-        <v>96</v>
+        <v>2720</v>
       </c>
       <c r="AA9" s="55">
-        <v>48</v>
+        <v>1342</v>
       </c>
       <c r="AB9" s="57">
-        <v>48</v>
+        <v>1378</v>
       </c>
       <c r="AC9" s="59">
-        <v>105</v>
+        <v>2935</v>
       </c>
       <c r="AD9" s="61">
-        <v>83</v>
+        <v>2125</v>
       </c>
       <c r="AE9" s="63">
-        <v>22</v>
+        <v>810</v>
       </c>
       <c r="AF9" s="65">
         <v>0</v>
@@ -2316,16 +2316,16 @@
         <v>0</v>
       </c>
       <c r="AI9" s="71">
-        <v>33</v>
+        <v>866</v>
       </c>
       <c r="AJ9" s="73">
-        <v>19</v>
+        <v>496</v>
       </c>
       <c r="AK9" s="75">
-        <v>14</v>
+        <v>371</v>
       </c>
       <c r="AL9" s="77">
-        <v>5504</v>
+        <v>146932</v>
       </c>
     </row>
     <row r="10">
@@ -2333,58 +2333,58 @@
         <v>22</v>
       </c>
       <c r="B10" s="5">
-        <v>2046</v>
+        <v>60912</v>
       </c>
       <c r="C10" s="7">
-        <v>1691</v>
+        <v>50265</v>
       </c>
       <c r="D10" s="9">
-        <v>355</v>
+        <v>10647</v>
       </c>
       <c r="E10" s="11">
-        <v>1893</v>
+        <v>55950</v>
       </c>
       <c r="F10" s="13">
-        <v>2192</v>
+        <v>64982</v>
       </c>
       <c r="G10" s="15">
-        <v>-299</v>
+        <v>-9032</v>
       </c>
       <c r="H10" s="17">
-        <v>422</v>
+        <v>12597</v>
       </c>
       <c r="I10" s="19">
-        <v>483</v>
+        <v>14357</v>
       </c>
       <c r="J10" s="21">
-        <v>-61</v>
+        <v>-1761</v>
       </c>
       <c r="K10" s="23">
-        <v>204</v>
+        <v>6103</v>
       </c>
       <c r="L10" s="25">
-        <v>237</v>
+        <v>7073</v>
       </c>
       <c r="M10" s="27">
-        <v>-33</v>
+        <v>-970</v>
       </c>
       <c r="N10" s="29">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="O10" s="31">
-        <v>29</v>
+        <v>876</v>
       </c>
       <c r="P10" s="33">
-        <v>-25</v>
+        <v>-740</v>
       </c>
       <c r="Q10" s="35">
-        <v>22</v>
+        <v>651</v>
       </c>
       <c r="R10" s="37">
-        <v>33</v>
+        <v>965</v>
       </c>
       <c r="S10" s="39">
-        <v>-11</v>
+        <v>-314</v>
       </c>
       <c r="T10" s="41">
         <v>0</v>
@@ -2399,28 +2399,28 @@
         <v>0</v>
       </c>
       <c r="X10" s="49">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y10" s="51">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="Z10" s="53">
-        <v>155</v>
+        <v>4655</v>
       </c>
       <c r="AA10" s="55">
-        <v>111</v>
+        <v>3292</v>
       </c>
       <c r="AB10" s="57">
-        <v>44</v>
+        <v>1363</v>
       </c>
       <c r="AC10" s="59">
-        <v>36</v>
+        <v>1052</v>
       </c>
       <c r="AD10" s="61">
-        <v>72</v>
+        <v>2141</v>
       </c>
       <c r="AE10" s="63">
-        <v>-36</v>
+        <v>-1089</v>
       </c>
       <c r="AF10" s="65">
         <v>0</v>
@@ -2432,16 +2432,16 @@
         <v>0</v>
       </c>
       <c r="AI10" s="71">
-        <v>25</v>
+        <v>742</v>
       </c>
       <c r="AJ10" s="73">
-        <v>20</v>
+        <v>596</v>
       </c>
       <c r="AK10" s="75">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="AL10" s="77">
-        <v>4386</v>
+        <v>130200</v>
       </c>
     </row>
     <row r="11">
@@ -2449,94 +2449,94 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <v>2873</v>
+        <v>93211</v>
       </c>
       <c r="C11" s="7">
-        <v>2907</v>
+        <v>93983</v>
       </c>
       <c r="D11" s="9">
-        <v>-34</v>
+        <v>-772</v>
       </c>
       <c r="E11" s="11">
-        <v>3839</v>
+        <v>123933</v>
       </c>
       <c r="F11" s="13">
-        <v>3682</v>
+        <v>119448</v>
       </c>
       <c r="G11" s="15">
-        <v>156</v>
+        <v>4485</v>
       </c>
       <c r="H11" s="17">
-        <v>516</v>
+        <v>16765</v>
       </c>
       <c r="I11" s="19">
-        <v>615</v>
+        <v>19702</v>
       </c>
       <c r="J11" s="21">
-        <v>-99</v>
+        <v>-2937</v>
       </c>
       <c r="K11" s="23">
-        <v>199</v>
+        <v>6478</v>
       </c>
       <c r="L11" s="25">
-        <v>165</v>
+        <v>5264</v>
       </c>
       <c r="M11" s="27">
-        <v>33</v>
+        <v>1214</v>
       </c>
       <c r="N11" s="29">
-        <v>27</v>
+        <v>879</v>
       </c>
       <c r="O11" s="31">
-        <v>22</v>
+        <v>698</v>
       </c>
       <c r="P11" s="33">
+        <v>181</v>
+      </c>
+      <c r="Q11" s="35">
+        <v>1877</v>
+      </c>
+      <c r="R11" s="37">
+        <v>1083</v>
+      </c>
+      <c r="S11" s="39">
+        <v>793</v>
+      </c>
+      <c r="T11" s="41">
+        <v>0</v>
+      </c>
+      <c r="U11" s="43">
+        <v>0</v>
+      </c>
+      <c r="V11" s="45">
+        <v>0</v>
+      </c>
+      <c r="W11" s="47">
         <v>5</v>
       </c>
-      <c r="Q11" s="35">
-        <v>58</v>
-      </c>
-      <c r="R11" s="37">
-        <v>34</v>
-      </c>
-      <c r="S11" s="39">
-        <v>24</v>
-      </c>
-      <c r="T11" s="41">
-        <v>0</v>
-      </c>
-      <c r="U11" s="43">
-        <v>0</v>
-      </c>
-      <c r="V11" s="45">
-        <v>0</v>
-      </c>
-      <c r="W11" s="47">
-        <v>0</v>
-      </c>
       <c r="X11" s="49">
         <v>0</v>
       </c>
       <c r="Y11" s="51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z11" s="53">
-        <v>99</v>
+        <v>3199</v>
       </c>
       <c r="AA11" s="55">
-        <v>122</v>
+        <v>3926</v>
       </c>
       <c r="AB11" s="57">
-        <v>-23</v>
+        <v>-727</v>
       </c>
       <c r="AC11" s="59">
-        <v>133</v>
+        <v>4327</v>
       </c>
       <c r="AD11" s="61">
-        <v>271</v>
+        <v>8731</v>
       </c>
       <c r="AE11" s="63">
-        <v>-138</v>
+        <v>-4404</v>
       </c>
       <c r="AF11" s="65">
         <v>0</v>
@@ -2548,16 +2548,16 @@
         <v>0</v>
       </c>
       <c r="AI11" s="71">
-        <v>16</v>
+        <v>534</v>
       </c>
       <c r="AJ11" s="73">
-        <v>40</v>
+        <v>1311</v>
       </c>
       <c r="AK11" s="75">
-        <v>-24</v>
+        <v>-777</v>
       </c>
       <c r="AL11" s="77">
-        <v>7244</v>
+        <v>234444</v>
       </c>
     </row>
     <row r="12">
@@ -2565,94 +2565,94 @@
         <v>24</v>
       </c>
       <c r="B12" s="5">
-        <v>3355</v>
+        <v>111059</v>
       </c>
       <c r="C12" s="7">
-        <v>3171</v>
+        <v>105088</v>
       </c>
       <c r="D12" s="9">
-        <v>184</v>
+        <v>5971</v>
       </c>
       <c r="E12" s="11">
-        <v>3190</v>
+        <v>104894</v>
       </c>
       <c r="F12" s="13">
-        <v>3705</v>
+        <v>121851</v>
       </c>
       <c r="G12" s="15">
-        <v>-515</v>
+        <v>-16957</v>
       </c>
       <c r="H12" s="17">
-        <v>741</v>
+        <v>24372</v>
       </c>
       <c r="I12" s="19">
-        <v>393</v>
+        <v>12868</v>
       </c>
       <c r="J12" s="21">
-        <v>347</v>
+        <v>11504</v>
       </c>
       <c r="K12" s="23">
-        <v>227</v>
+        <v>7546</v>
       </c>
       <c r="L12" s="25">
-        <v>184</v>
+        <v>5964</v>
       </c>
       <c r="M12" s="27">
-        <v>44</v>
+        <v>1582</v>
       </c>
       <c r="N12" s="29">
-        <v>35</v>
+        <v>1156</v>
       </c>
       <c r="O12" s="31">
-        <v>7</v>
+        <v>240</v>
       </c>
       <c r="P12" s="33">
-        <v>28</v>
+        <v>916</v>
       </c>
       <c r="Q12" s="35">
-        <v>32</v>
+        <v>1017</v>
       </c>
       <c r="R12" s="37">
+        <v>1507</v>
+      </c>
+      <c r="S12" s="39">
+        <v>-490</v>
+      </c>
+      <c r="T12" s="41">
+        <v>0</v>
+      </c>
+      <c r="U12" s="43">
+        <v>0</v>
+      </c>
+      <c r="V12" s="45">
+        <v>0</v>
+      </c>
+      <c r="W12" s="47">
+        <v>0</v>
+      </c>
+      <c r="X12" s="49">
         <v>46</v>
       </c>
-      <c r="S12" s="39">
-        <v>-13</v>
-      </c>
-      <c r="T12" s="41">
-        <v>0</v>
-      </c>
-      <c r="U12" s="43">
-        <v>0</v>
-      </c>
-      <c r="V12" s="45">
-        <v>0</v>
-      </c>
-      <c r="W12" s="47">
-        <v>0</v>
-      </c>
-      <c r="X12" s="49">
-        <v>1</v>
-      </c>
       <c r="Y12" s="51">
-        <v>-1</v>
+        <v>-46</v>
       </c>
       <c r="Z12" s="53">
-        <v>429</v>
+        <v>14126</v>
       </c>
       <c r="AA12" s="55">
-        <v>127</v>
+        <v>4157</v>
       </c>
       <c r="AB12" s="57">
-        <v>303</v>
+        <v>9969</v>
       </c>
       <c r="AC12" s="59">
-        <v>16</v>
+        <v>527</v>
       </c>
       <c r="AD12" s="61">
-        <v>29</v>
+        <v>954</v>
       </c>
       <c r="AE12" s="63">
-        <v>-12</v>
+        <v>-427</v>
       </c>
       <c r="AF12" s="65">
         <v>0</v>
@@ -2664,16 +2664,16 @@
         <v>0</v>
       </c>
       <c r="AI12" s="71">
-        <v>19</v>
+        <v>628</v>
       </c>
       <c r="AJ12" s="73">
-        <v>35</v>
+        <v>1146</v>
       </c>
       <c r="AK12" s="75">
-        <v>-16</v>
+        <v>-518</v>
       </c>
       <c r="AL12" s="77">
-        <v>7304</v>
+        <v>240953</v>
       </c>
     </row>
     <row r="13">
@@ -2681,58 +2681,58 @@
         <v>25</v>
       </c>
       <c r="B13" s="5">
-        <v>3322</v>
+        <v>92294</v>
       </c>
       <c r="C13" s="7">
-        <v>2999</v>
+        <v>83728</v>
       </c>
       <c r="D13" s="9">
-        <v>323</v>
+        <v>8566</v>
       </c>
       <c r="E13" s="11">
-        <v>2771</v>
+        <v>77773</v>
       </c>
       <c r="F13" s="13">
-        <v>2886</v>
+        <v>81043</v>
       </c>
       <c r="G13" s="15">
-        <v>-114</v>
+        <v>-3270</v>
       </c>
       <c r="H13" s="17">
-        <v>384</v>
+        <v>10762</v>
       </c>
       <c r="I13" s="19">
-        <v>513</v>
+        <v>13842</v>
       </c>
       <c r="J13" s="21">
-        <v>-129</v>
+        <v>-3079</v>
       </c>
       <c r="K13" s="23">
-        <v>171</v>
+        <v>4814</v>
       </c>
       <c r="L13" s="25">
-        <v>218</v>
+        <v>5917</v>
       </c>
       <c r="M13" s="27">
-        <v>-47</v>
+        <v>-1103</v>
       </c>
       <c r="N13" s="29">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="O13" s="31">
-        <v>12</v>
+        <v>331</v>
       </c>
       <c r="P13" s="33">
-        <v>20</v>
+        <v>571</v>
       </c>
       <c r="Q13" s="35">
-        <v>23</v>
+        <v>666</v>
       </c>
       <c r="R13" s="37">
-        <v>21</v>
+        <v>560</v>
       </c>
       <c r="S13" s="39">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="T13" s="41">
         <v>0</v>
@@ -2753,22 +2753,22 @@
         <v>0</v>
       </c>
       <c r="Z13" s="53">
-        <v>124</v>
+        <v>3460</v>
       </c>
       <c r="AA13" s="55">
-        <v>64</v>
+        <v>1768</v>
       </c>
       <c r="AB13" s="57">
-        <v>61</v>
+        <v>1691</v>
       </c>
       <c r="AC13" s="59">
-        <v>33</v>
+        <v>920</v>
       </c>
       <c r="AD13" s="61">
-        <v>199</v>
+        <v>5265</v>
       </c>
       <c r="AE13" s="63">
-        <v>-165</v>
+        <v>-4345</v>
       </c>
       <c r="AF13" s="65">
         <v>0</v>
@@ -2780,16 +2780,16 @@
         <v>0</v>
       </c>
       <c r="AI13" s="71">
-        <v>18</v>
+        <v>507</v>
       </c>
       <c r="AJ13" s="73">
-        <v>97</v>
+        <v>2723</v>
       </c>
       <c r="AK13" s="75">
-        <v>-80</v>
+        <v>-2217</v>
       </c>
       <c r="AL13" s="77">
-        <v>6494</v>
+        <v>181336</v>
       </c>
     </row>
     <row r="14">
@@ -2797,58 +2797,58 @@
         <v>26</v>
       </c>
       <c r="B14" s="5">
-        <v>2681</v>
+        <v>81182</v>
       </c>
       <c r="C14" s="7">
-        <v>2000</v>
+        <v>61309</v>
       </c>
       <c r="D14" s="9">
-        <v>682</v>
+        <v>19873</v>
       </c>
       <c r="E14" s="11">
-        <v>2923</v>
+        <v>89454</v>
       </c>
       <c r="F14" s="13">
-        <v>3300</v>
+        <v>99412</v>
       </c>
       <c r="G14" s="15">
-        <v>-377</v>
+        <v>-9958</v>
       </c>
       <c r="H14" s="17">
-        <v>487</v>
+        <v>14656</v>
       </c>
       <c r="I14" s="19">
-        <v>732</v>
+        <v>22687</v>
       </c>
       <c r="J14" s="21">
-        <v>-245</v>
+        <v>-8030</v>
       </c>
       <c r="K14" s="23">
-        <v>240</v>
+        <v>7213</v>
       </c>
       <c r="L14" s="25">
-        <v>188</v>
+        <v>5731</v>
       </c>
       <c r="M14" s="27">
-        <v>52</v>
+        <v>1482</v>
       </c>
       <c r="N14" s="29">
-        <v>28</v>
+        <v>819</v>
       </c>
       <c r="O14" s="31">
-        <v>10</v>
+        <v>308</v>
       </c>
       <c r="P14" s="33">
-        <v>18</v>
+        <v>511</v>
       </c>
       <c r="Q14" s="35">
-        <v>53</v>
+        <v>1601</v>
       </c>
       <c r="R14" s="37">
-        <v>20</v>
+        <v>612</v>
       </c>
       <c r="S14" s="39">
-        <v>33</v>
+        <v>989</v>
       </c>
       <c r="T14" s="41">
         <v>0</v>
@@ -2860,31 +2860,31 @@
         <v>0</v>
       </c>
       <c r="W14" s="47">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="X14" s="49">
-        <v>290</v>
+        <v>9236</v>
       </c>
       <c r="Y14" s="51">
-        <v>-290</v>
+        <v>-9225</v>
       </c>
       <c r="Z14" s="53">
-        <v>113</v>
+        <v>3395</v>
       </c>
       <c r="AA14" s="55">
-        <v>182</v>
+        <v>5526</v>
       </c>
       <c r="AB14" s="57">
-        <v>-68</v>
+        <v>-2131</v>
       </c>
       <c r="AC14" s="59">
-        <v>52</v>
+        <v>1618</v>
       </c>
       <c r="AD14" s="61">
-        <v>42</v>
+        <v>1274</v>
       </c>
       <c r="AE14" s="63">
-        <v>10</v>
+        <v>344</v>
       </c>
       <c r="AF14" s="65">
         <v>0</v>
@@ -2896,16 +2896,16 @@
         <v>0</v>
       </c>
       <c r="AI14" s="71">
-        <v>14</v>
+        <v>425</v>
       </c>
       <c r="AJ14" s="73">
-        <v>74</v>
+        <v>2309</v>
       </c>
       <c r="AK14" s="75">
-        <v>-59</v>
+        <v>-1884</v>
       </c>
       <c r="AL14" s="77">
-        <v>6105</v>
+        <v>185717</v>
       </c>
     </row>
     <row r="15">
@@ -2913,58 +2913,58 @@
         <v>27</v>
       </c>
       <c r="B15" s="5">
-        <v>2232</v>
+        <v>83721</v>
       </c>
       <c r="C15" s="7">
-        <v>2263</v>
+        <v>86420</v>
       </c>
       <c r="D15" s="9">
-        <v>-31</v>
+        <v>-2699</v>
       </c>
       <c r="E15" s="11">
-        <v>5614</v>
+        <v>213747</v>
       </c>
       <c r="F15" s="13">
-        <v>4500</v>
+        <v>170267</v>
       </c>
       <c r="G15" s="15">
-        <v>1114</v>
+        <v>43480</v>
       </c>
       <c r="H15" s="17">
-        <v>361</v>
+        <v>13601</v>
       </c>
       <c r="I15" s="19">
-        <v>1040</v>
+        <v>39060</v>
       </c>
       <c r="J15" s="21">
-        <v>-678</v>
+        <v>-25459</v>
       </c>
       <c r="K15" s="23">
-        <v>153</v>
+        <v>5875</v>
       </c>
       <c r="L15" s="25">
-        <v>213</v>
+        <v>7945</v>
       </c>
       <c r="M15" s="27">
-        <v>-59</v>
+        <v>-2070</v>
       </c>
       <c r="N15" s="29">
-        <v>12</v>
+        <v>446</v>
       </c>
       <c r="O15" s="31">
-        <v>29</v>
+        <v>1090</v>
       </c>
       <c r="P15" s="33">
-        <v>-17</v>
+        <v>-645</v>
       </c>
       <c r="Q15" s="35">
-        <v>11</v>
+        <v>416</v>
       </c>
       <c r="R15" s="37">
-        <v>32</v>
+        <v>1186</v>
       </c>
       <c r="S15" s="39">
-        <v>-21</v>
+        <v>-770</v>
       </c>
       <c r="T15" s="41">
         <v>0</v>
@@ -2979,28 +2979,28 @@
         <v>0</v>
       </c>
       <c r="X15" s="49">
-        <v>614</v>
+        <v>23096</v>
       </c>
       <c r="Y15" s="51">
-        <v>-614</v>
+        <v>-23096</v>
       </c>
       <c r="Z15" s="53">
-        <v>103</v>
+        <v>3937</v>
       </c>
       <c r="AA15" s="55">
-        <v>121</v>
+        <v>4628</v>
       </c>
       <c r="AB15" s="57">
-        <v>-19</v>
+        <v>-691</v>
       </c>
       <c r="AC15" s="59">
-        <v>82</v>
+        <v>2928</v>
       </c>
       <c r="AD15" s="61">
-        <v>31</v>
+        <v>1116</v>
       </c>
       <c r="AE15" s="63">
-        <v>52</v>
+        <v>1812</v>
       </c>
       <c r="AF15" s="65">
         <v>0</v>
@@ -3012,16 +3012,16 @@
         <v>0</v>
       </c>
       <c r="AI15" s="71">
-        <v>40</v>
+        <v>1557</v>
       </c>
       <c r="AJ15" s="73">
-        <v>444</v>
+        <v>16879</v>
       </c>
       <c r="AK15" s="75">
-        <v>-404</v>
+        <v>-15322</v>
       </c>
       <c r="AL15" s="77">
-        <v>8247</v>
+        <v>312625</v>
       </c>
     </row>
     <row r="16">
@@ -3029,94 +3029,94 @@
         <v>28</v>
       </c>
       <c r="B16" s="5">
-        <v>3032</v>
+        <v>137080</v>
       </c>
       <c r="C16" s="7">
-        <v>3779</v>
+        <v>172489</v>
       </c>
       <c r="D16" s="9">
-        <v>-747</v>
+        <v>-35409</v>
       </c>
       <c r="E16" s="11">
-        <v>11972</v>
+        <v>553277</v>
       </c>
       <c r="F16" s="13">
-        <v>10923</v>
+        <v>503449</v>
       </c>
       <c r="G16" s="15">
-        <v>1050</v>
+        <v>49828</v>
       </c>
       <c r="H16" s="17">
-        <v>1363</v>
+        <v>61546</v>
       </c>
       <c r="I16" s="19">
-        <v>1053</v>
+        <v>47255</v>
       </c>
       <c r="J16" s="21">
-        <v>310</v>
+        <v>14292</v>
       </c>
       <c r="K16" s="23">
-        <v>219</v>
+        <v>9721</v>
       </c>
       <c r="L16" s="25">
-        <v>355</v>
+        <v>16059</v>
       </c>
       <c r="M16" s="27">
-        <v>-136</v>
+        <v>-6338</v>
       </c>
       <c r="N16" s="29">
-        <v>63</v>
+        <v>2843</v>
       </c>
       <c r="O16" s="31">
-        <v>36</v>
+        <v>1631</v>
       </c>
       <c r="P16" s="33">
-        <v>27</v>
+        <v>1212</v>
       </c>
       <c r="Q16" s="35">
-        <v>199</v>
+        <v>9058</v>
       </c>
       <c r="R16" s="37">
-        <v>152</v>
+        <v>6896</v>
       </c>
       <c r="S16" s="39">
-        <v>47</v>
+        <v>2162</v>
       </c>
       <c r="T16" s="41">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U16" s="43">
         <v>0</v>
       </c>
       <c r="V16" s="45">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W16" s="47">
         <v>0</v>
       </c>
       <c r="X16" s="49">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="Y16" s="51">
-        <v>-2</v>
+        <v>-70</v>
       </c>
       <c r="Z16" s="53">
-        <v>446</v>
+        <v>20464</v>
       </c>
       <c r="AA16" s="55">
-        <v>136</v>
+        <v>5900</v>
       </c>
       <c r="AB16" s="57">
-        <v>310</v>
+        <v>14564</v>
       </c>
       <c r="AC16" s="59">
-        <v>435</v>
+        <v>19447</v>
       </c>
       <c r="AD16" s="61">
-        <v>372</v>
+        <v>16698</v>
       </c>
       <c r="AE16" s="63">
-        <v>63</v>
+        <v>2749</v>
       </c>
       <c r="AF16" s="65">
         <v>0</v>
@@ -3128,16 +3128,16 @@
         <v>0</v>
       </c>
       <c r="AI16" s="71">
-        <v>97</v>
+        <v>4386</v>
       </c>
       <c r="AJ16" s="73">
-        <v>709</v>
+        <v>33096</v>
       </c>
       <c r="AK16" s="75">
-        <v>-613</v>
+        <v>-28710</v>
       </c>
       <c r="AL16" s="77">
-        <v>16464</v>
+        <v>756289</v>
       </c>
     </row>
     <row r="17">
@@ -3145,94 +3145,94 @@
         <v>29</v>
       </c>
       <c r="B17" s="5">
-        <v>2107</v>
+        <v>85790</v>
       </c>
       <c r="C17" s="7">
-        <v>3191</v>
+        <v>134316</v>
       </c>
       <c r="D17" s="9">
-        <v>-1085</v>
+        <v>-48526</v>
       </c>
       <c r="E17" s="11">
-        <v>3053</v>
+        <v>125011</v>
       </c>
       <c r="F17" s="13">
-        <v>3070</v>
+        <v>124636</v>
       </c>
       <c r="G17" s="15">
-        <v>-17</v>
+        <v>375</v>
       </c>
       <c r="H17" s="17">
-        <v>1926</v>
+        <v>82473</v>
       </c>
       <c r="I17" s="19">
-        <v>841</v>
+        <v>35003</v>
       </c>
       <c r="J17" s="21">
-        <v>1085</v>
+        <v>47470</v>
       </c>
       <c r="K17" s="23">
-        <v>304</v>
+        <v>12064</v>
       </c>
       <c r="L17" s="25">
-        <v>455</v>
+        <v>19376</v>
       </c>
       <c r="M17" s="27">
-        <v>-151</v>
+        <v>-7312</v>
       </c>
       <c r="N17" s="29">
-        <v>213</v>
+        <v>9315</v>
       </c>
       <c r="O17" s="31">
+        <v>730</v>
+      </c>
+      <c r="P17" s="33">
+        <v>8586</v>
+      </c>
+      <c r="Q17" s="35">
+        <v>31187</v>
+      </c>
+      <c r="R17" s="37">
+        <v>520</v>
+      </c>
+      <c r="S17" s="39">
+        <v>30667</v>
+      </c>
+      <c r="T17" s="41">
+        <v>0</v>
+      </c>
+      <c r="U17" s="43">
+        <v>0</v>
+      </c>
+      <c r="V17" s="45">
+        <v>0</v>
+      </c>
+      <c r="W17" s="47">
         <v>17</v>
       </c>
-      <c r="P17" s="33">
-        <v>196</v>
-      </c>
-      <c r="Q17" s="35">
-        <v>687</v>
-      </c>
-      <c r="R17" s="37">
-        <v>13</v>
-      </c>
-      <c r="S17" s="39">
-        <v>673</v>
-      </c>
-      <c r="T17" s="41">
-        <v>0</v>
-      </c>
-      <c r="U17" s="43">
-        <v>0</v>
-      </c>
-      <c r="V17" s="45">
-        <v>0</v>
-      </c>
-      <c r="W17" s="47">
-        <v>0</v>
-      </c>
       <c r="X17" s="49">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="Y17" s="51">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="Z17" s="53">
-        <v>568</v>
+        <v>23565</v>
       </c>
       <c r="AA17" s="55">
-        <v>69</v>
+        <v>2741</v>
       </c>
       <c r="AB17" s="57">
-        <v>499</v>
+        <v>20824</v>
       </c>
       <c r="AC17" s="59">
-        <v>154</v>
+        <v>6326</v>
       </c>
       <c r="AD17" s="61">
-        <v>287</v>
+        <v>11615</v>
       </c>
       <c r="AE17" s="63">
-        <v>-133</v>
+        <v>-5290</v>
       </c>
       <c r="AF17" s="65">
         <v>0</v>
@@ -3244,16 +3244,16 @@
         <v>0</v>
       </c>
       <c r="AI17" s="71">
-        <v>24</v>
+        <v>982</v>
       </c>
       <c r="AJ17" s="73">
-        <v>8</v>
+        <v>301</v>
       </c>
       <c r="AK17" s="75">
-        <v>17</v>
+        <v>681</v>
       </c>
       <c r="AL17" s="77">
-        <v>7111</v>
+        <v>294257</v>
       </c>
     </row>
     <row r="18">
@@ -3261,58 +3261,58 @@
         <v>30</v>
       </c>
       <c r="B18" s="5">
-        <v>1755</v>
+        <v>84152</v>
       </c>
       <c r="C18" s="7">
-        <v>1821</v>
+        <v>87153</v>
       </c>
       <c r="D18" s="9">
-        <v>-66</v>
+        <v>-3001</v>
       </c>
       <c r="E18" s="11">
-        <v>2560</v>
+        <v>122109</v>
       </c>
       <c r="F18" s="13">
-        <v>2898</v>
+        <v>138530</v>
       </c>
       <c r="G18" s="15">
-        <v>-338</v>
+        <v>-16422</v>
       </c>
       <c r="H18" s="17">
-        <v>474</v>
+        <v>22730</v>
       </c>
       <c r="I18" s="19">
-        <v>72</v>
+        <v>3390</v>
       </c>
       <c r="J18" s="21">
-        <v>403</v>
+        <v>19340</v>
       </c>
       <c r="K18" s="23">
-        <v>48</v>
+        <v>2284</v>
       </c>
       <c r="L18" s="25">
-        <v>41</v>
+        <v>1927</v>
       </c>
       <c r="M18" s="27">
-        <v>7</v>
+        <v>357</v>
       </c>
       <c r="N18" s="29">
-        <v>11</v>
+        <v>522</v>
       </c>
       <c r="O18" s="31">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="P18" s="33">
-        <v>7</v>
+        <v>321</v>
       </c>
       <c r="Q18" s="35">
-        <v>13</v>
+        <v>608</v>
       </c>
       <c r="R18" s="37">
-        <v>8</v>
+        <v>364</v>
       </c>
       <c r="S18" s="39">
-        <v>5</v>
+        <v>244</v>
       </c>
       <c r="T18" s="41">
         <v>0</v>
@@ -3333,22 +3333,22 @@
         <v>0</v>
       </c>
       <c r="Z18" s="53">
-        <v>391</v>
+        <v>18767</v>
       </c>
       <c r="AA18" s="55">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="AB18" s="57">
-        <v>390</v>
+        <v>18685</v>
       </c>
       <c r="AC18" s="59">
-        <v>12</v>
+        <v>549</v>
       </c>
       <c r="AD18" s="61">
-        <v>17</v>
+        <v>816</v>
       </c>
       <c r="AE18" s="63">
-        <v>-5</v>
+        <v>-267</v>
       </c>
       <c r="AF18" s="65">
         <v>0</v>
@@ -3360,16 +3360,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="71">
-        <v>11</v>
+        <v>520</v>
       </c>
       <c r="AJ18" s="73">
-        <v>9</v>
+        <v>437</v>
       </c>
       <c r="AK18" s="75">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="AL18" s="77">
-        <v>4800</v>
+        <v>229511</v>
       </c>
     </row>
     <row r="19">
@@ -3377,94 +3377,94 @@
         <v>31</v>
       </c>
       <c r="B19" s="5">
-        <v>1609</v>
+        <v>81262</v>
       </c>
       <c r="C19" s="7">
-        <v>868</v>
+        <v>43648</v>
       </c>
       <c r="D19" s="9">
-        <v>741</v>
+        <v>37614</v>
       </c>
       <c r="E19" s="11">
-        <v>3024</v>
+        <v>153272</v>
       </c>
       <c r="F19" s="13">
-        <v>3739</v>
+        <v>189661</v>
       </c>
       <c r="G19" s="15">
-        <v>-715</v>
+        <v>-36389</v>
       </c>
       <c r="H19" s="17">
-        <v>208</v>
+        <v>10460</v>
       </c>
       <c r="I19" s="19">
-        <v>196</v>
+        <v>9890</v>
       </c>
       <c r="J19" s="21">
-        <v>12</v>
+        <v>570</v>
       </c>
       <c r="K19" s="23">
-        <v>33</v>
+        <v>1628</v>
       </c>
       <c r="L19" s="25">
-        <v>53</v>
+        <v>2741</v>
       </c>
       <c r="M19" s="27">
-        <v>-20</v>
+        <v>-1112</v>
       </c>
       <c r="N19" s="29">
-        <v>13</v>
+        <v>694</v>
       </c>
       <c r="O19" s="31">
-        <v>18</v>
+        <v>915</v>
       </c>
       <c r="P19" s="33">
+        <v>-221</v>
+      </c>
+      <c r="Q19" s="35">
+        <v>784</v>
+      </c>
+      <c r="R19" s="37">
+        <v>1075</v>
+      </c>
+      <c r="S19" s="39">
+        <v>-290</v>
+      </c>
+      <c r="T19" s="41">
+        <v>0</v>
+      </c>
+      <c r="U19" s="43">
+        <v>186</v>
+      </c>
+      <c r="V19" s="45">
+        <v>-186</v>
+      </c>
+      <c r="W19" s="47">
+        <v>0</v>
+      </c>
+      <c r="X19" s="49">
+        <v>4</v>
+      </c>
+      <c r="Y19" s="51">
         <v>-4</v>
       </c>
-      <c r="Q19" s="35">
-        <v>15</v>
-      </c>
-      <c r="R19" s="37">
-        <v>21</v>
-      </c>
-      <c r="S19" s="39">
-        <v>-6</v>
-      </c>
-      <c r="T19" s="41">
-        <v>0</v>
-      </c>
-      <c r="U19" s="43">
-        <v>3</v>
-      </c>
-      <c r="V19" s="45">
-        <v>-3</v>
-      </c>
-      <c r="W19" s="47">
-        <v>0</v>
-      </c>
-      <c r="X19" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="51">
-        <v>0</v>
-      </c>
       <c r="Z19" s="53">
-        <v>111</v>
+        <v>5403</v>
       </c>
       <c r="AA19" s="55">
-        <v>54</v>
+        <v>2594</v>
       </c>
       <c r="AB19" s="57">
-        <v>57</v>
+        <v>2809</v>
       </c>
       <c r="AC19" s="59">
-        <v>36</v>
+        <v>1950</v>
       </c>
       <c r="AD19" s="61">
-        <v>47</v>
+        <v>2375</v>
       </c>
       <c r="AE19" s="63">
-        <v>-11</v>
+        <v>-426</v>
       </c>
       <c r="AF19" s="65">
         <v>0</v>
@@ -3476,16 +3476,16 @@
         <v>0</v>
       </c>
       <c r="AI19" s="71">
-        <v>19</v>
+        <v>1001</v>
       </c>
       <c r="AJ19" s="73">
-        <v>57</v>
+        <v>2796</v>
       </c>
       <c r="AK19" s="75">
-        <v>-38</v>
+        <v>-1795</v>
       </c>
       <c r="AL19" s="77">
-        <v>4860</v>
+        <v>245995</v>
       </c>
     </row>
     <row r="20">
@@ -3493,67 +3493,67 @@
         <v>32</v>
       </c>
       <c r="B20" s="5">
-        <v>5146</v>
+        <v>293640</v>
       </c>
       <c r="C20" s="7">
-        <v>3572</v>
+        <v>204668</v>
       </c>
       <c r="D20" s="9">
-        <v>1574</v>
+        <v>88972</v>
       </c>
       <c r="E20" s="11">
-        <v>8861</v>
+        <v>501606</v>
       </c>
       <c r="F20" s="13">
-        <v>10391</v>
+        <v>588130</v>
       </c>
       <c r="G20" s="15">
-        <v>-1530</v>
+        <v>-86524</v>
       </c>
       <c r="H20" s="17">
-        <v>295</v>
+        <v>16840</v>
       </c>
       <c r="I20" s="19">
-        <v>331</v>
+        <v>18802</v>
       </c>
       <c r="J20" s="21">
-        <v>-36</v>
+        <v>-1962</v>
       </c>
       <c r="K20" s="23">
-        <v>50</v>
+        <v>2833</v>
       </c>
       <c r="L20" s="25">
-        <v>52</v>
+        <v>2932</v>
       </c>
       <c r="M20" s="27">
-        <v>-2</v>
+        <v>-99</v>
       </c>
       <c r="N20" s="29">
-        <v>6</v>
+        <v>358</v>
       </c>
       <c r="O20" s="31">
-        <v>20</v>
+        <v>1100</v>
       </c>
       <c r="P20" s="33">
-        <v>-13</v>
+        <v>-742</v>
       </c>
       <c r="Q20" s="35">
-        <v>81</v>
+        <v>4636</v>
       </c>
       <c r="R20" s="37">
-        <v>52</v>
+        <v>2924</v>
       </c>
       <c r="S20" s="39">
-        <v>29</v>
+        <v>1712</v>
       </c>
       <c r="T20" s="41">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="U20" s="43">
         <v>0</v>
       </c>
       <c r="V20" s="45">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="W20" s="47">
         <v>0</v>
@@ -3565,22 +3565,22 @@
         <v>0</v>
       </c>
       <c r="Z20" s="53">
-        <v>103</v>
+        <v>5897</v>
       </c>
       <c r="AA20" s="55">
-        <v>140</v>
+        <v>8030</v>
       </c>
       <c r="AB20" s="57">
-        <v>-37</v>
+        <v>-2133</v>
       </c>
       <c r="AC20" s="59">
-        <v>51</v>
+        <v>2916</v>
       </c>
       <c r="AD20" s="61">
-        <v>67</v>
+        <v>3816</v>
       </c>
       <c r="AE20" s="63">
-        <v>-16</v>
+        <v>-900</v>
       </c>
       <c r="AF20" s="65">
         <v>0</v>
@@ -3592,16 +3592,16 @@
         <v>0</v>
       </c>
       <c r="AI20" s="71">
-        <v>20</v>
+        <v>1143</v>
       </c>
       <c r="AJ20" s="73">
-        <v>29</v>
+        <v>1629</v>
       </c>
       <c r="AK20" s="75">
-        <v>-8</v>
+        <v>-487</v>
       </c>
       <c r="AL20" s="77">
-        <v>14322</v>
+        <v>813229</v>
       </c>
     </row>
     <row r="21">
@@ -3609,94 +3609,94 @@
         <v>33</v>
       </c>
       <c r="B21" s="5">
-        <v>7848</v>
+        <v>502918</v>
       </c>
       <c r="C21" s="7">
-        <v>7195</v>
+        <v>465908</v>
       </c>
       <c r="D21" s="9">
-        <v>652</v>
+        <v>37010</v>
       </c>
       <c r="E21" s="11">
-        <v>61120</v>
+        <v>4085836</v>
       </c>
       <c r="F21" s="13">
-        <v>61547</v>
+        <v>4106390</v>
       </c>
       <c r="G21" s="15">
-        <v>-428</v>
+        <v>-20553</v>
       </c>
       <c r="H21" s="17">
-        <v>927</v>
+        <v>61873</v>
       </c>
       <c r="I21" s="19">
-        <v>925</v>
+        <v>61865</v>
       </c>
       <c r="J21" s="21">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K21" s="23">
-        <v>76</v>
+        <v>5246</v>
       </c>
       <c r="L21" s="25">
-        <v>130</v>
+        <v>8733</v>
       </c>
       <c r="M21" s="27">
-        <v>-54</v>
+        <v>-3488</v>
       </c>
       <c r="N21" s="29">
-        <v>38</v>
+        <v>2404</v>
       </c>
       <c r="O21" s="31">
-        <v>13</v>
+        <v>856</v>
       </c>
       <c r="P21" s="33">
-        <v>25</v>
+        <v>1548</v>
       </c>
       <c r="Q21" s="35">
-        <v>250</v>
+        <v>17293</v>
       </c>
       <c r="R21" s="37">
-        <v>276</v>
+        <v>17879</v>
       </c>
       <c r="S21" s="39">
-        <v>-27</v>
+        <v>-585</v>
       </c>
       <c r="T21" s="41">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="U21" s="43">
-        <v>20</v>
+        <v>1247</v>
       </c>
       <c r="V21" s="45">
-        <v>-20</v>
+        <v>-1223</v>
       </c>
       <c r="W21" s="47">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="X21" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y21" s="51">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z21" s="53">
-        <v>439</v>
+        <v>27769</v>
       </c>
       <c r="AA21" s="55">
-        <v>65</v>
+        <v>4312</v>
       </c>
       <c r="AB21" s="57">
-        <v>374</v>
+        <v>23457</v>
       </c>
       <c r="AC21" s="59">
-        <v>123</v>
+        <v>9117</v>
       </c>
       <c r="AD21" s="61">
-        <v>421</v>
+        <v>28835</v>
       </c>
       <c r="AE21" s="63">
-        <v>-298</v>
+        <v>-19718</v>
       </c>
       <c r="AF21" s="65">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="AI21" s="71">
-        <v>461</v>
+        <v>30677</v>
       </c>
       <c r="AJ21" s="73">
-        <v>687</v>
+        <v>47142</v>
       </c>
       <c r="AK21" s="75">
-        <v>-226</v>
+        <v>-16465</v>
       </c>
       <c r="AL21" s="77">
-        <v>70355</v>
+        <v>4681305</v>
       </c>
     </row>
     <row r="22">
@@ -3725,58 +3725,58 @@
         <v>34</v>
       </c>
       <c r="B22" s="5">
-        <v>3181</v>
+        <v>176921</v>
       </c>
       <c r="C22" s="7">
-        <v>2519</v>
+        <v>140386</v>
       </c>
       <c r="D22" s="9">
-        <v>662</v>
+        <v>36535</v>
       </c>
       <c r="E22" s="11">
-        <v>13691</v>
+        <v>774693</v>
       </c>
       <c r="F22" s="13">
-        <v>14939</v>
+        <v>844257</v>
       </c>
       <c r="G22" s="15">
-        <v>-1248</v>
+        <v>-69564</v>
       </c>
       <c r="H22" s="17">
-        <v>1116</v>
+        <v>61850</v>
       </c>
       <c r="I22" s="19">
-        <v>572</v>
+        <v>30943</v>
       </c>
       <c r="J22" s="21">
-        <v>544</v>
+        <v>30908</v>
       </c>
       <c r="K22" s="23">
-        <v>97</v>
+        <v>5403</v>
       </c>
       <c r="L22" s="25">
-        <v>148</v>
+        <v>7709</v>
       </c>
       <c r="M22" s="27">
-        <v>-51</v>
+        <v>-2307</v>
       </c>
       <c r="N22" s="29">
-        <v>21</v>
+        <v>1130</v>
       </c>
       <c r="O22" s="31">
-        <v>11</v>
+        <v>629</v>
       </c>
       <c r="P22" s="33">
-        <v>9</v>
+        <v>502</v>
       </c>
       <c r="Q22" s="35">
-        <v>67</v>
+        <v>3785</v>
       </c>
       <c r="R22" s="37">
-        <v>191</v>
+        <v>10420</v>
       </c>
       <c r="S22" s="39">
-        <v>-124</v>
+        <v>-6635</v>
       </c>
       <c r="T22" s="41">
         <v>0</v>
@@ -3791,28 +3791,28 @@
         <v>0</v>
       </c>
       <c r="X22" s="49">
-        <v>26</v>
+        <v>1394</v>
       </c>
       <c r="Y22" s="51">
-        <v>-26</v>
+        <v>-1394</v>
       </c>
       <c r="Z22" s="53">
-        <v>632</v>
+        <v>34772</v>
       </c>
       <c r="AA22" s="55">
-        <v>58</v>
+        <v>3133</v>
       </c>
       <c r="AB22" s="57">
-        <v>574</v>
+        <v>31639</v>
       </c>
       <c r="AC22" s="59">
-        <v>299</v>
+        <v>16760</v>
       </c>
       <c r="AD22" s="61">
-        <v>137</v>
+        <v>7658</v>
       </c>
       <c r="AE22" s="63">
-        <v>162</v>
+        <v>9102</v>
       </c>
       <c r="AF22" s="65">
         <v>0</v>
@@ -3824,16 +3824,16 @@
         <v>0</v>
       </c>
       <c r="AI22" s="71">
-        <v>113</v>
+        <v>6165</v>
       </c>
       <c r="AJ22" s="73">
-        <v>71</v>
+        <v>4043</v>
       </c>
       <c r="AK22" s="75">
-        <v>43</v>
+        <v>2122</v>
       </c>
       <c r="AL22" s="77">
-        <v>18101</v>
+        <v>1019630</v>
       </c>
     </row>
     <row r="23">
@@ -3841,94 +3841,94 @@
         <v>35</v>
       </c>
       <c r="B23" s="5">
-        <v>2636</v>
+        <v>144045</v>
       </c>
       <c r="C23" s="7">
-        <v>1887</v>
+        <v>102794</v>
       </c>
       <c r="D23" s="9">
-        <v>748</v>
+        <v>41251</v>
       </c>
       <c r="E23" s="11">
-        <v>12501</v>
+        <v>681276</v>
       </c>
       <c r="F23" s="13">
-        <v>14383</v>
+        <v>784543</v>
       </c>
       <c r="G23" s="15">
-        <v>-1882</v>
+        <v>-103267</v>
       </c>
       <c r="H23" s="17">
-        <v>1746</v>
+        <v>95243</v>
       </c>
       <c r="I23" s="19">
-        <v>619</v>
+        <v>33647</v>
       </c>
       <c r="J23" s="21">
-        <v>1127</v>
+        <v>61596</v>
       </c>
       <c r="K23" s="23">
-        <v>100</v>
+        <v>5229</v>
       </c>
       <c r="L23" s="25">
-        <v>56</v>
+        <v>3043</v>
       </c>
       <c r="M23" s="27">
-        <v>44</v>
+        <v>2186</v>
       </c>
       <c r="N23" s="29">
-        <v>12</v>
+        <v>657</v>
       </c>
       <c r="O23" s="31">
-        <v>47</v>
+        <v>2559</v>
       </c>
       <c r="P23" s="33">
-        <v>-35</v>
+        <v>-1903</v>
       </c>
       <c r="Q23" s="35">
-        <v>104</v>
+        <v>5559</v>
       </c>
       <c r="R23" s="37">
-        <v>153</v>
+        <v>8244</v>
       </c>
       <c r="S23" s="39">
-        <v>-49</v>
+        <v>-2685</v>
       </c>
       <c r="T23" s="41">
         <v>0</v>
       </c>
       <c r="U23" s="43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V23" s="45">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="W23" s="47">
         <v>0</v>
       </c>
       <c r="X23" s="49">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="Y23" s="51">
-        <v>-1</v>
+        <v>-82</v>
       </c>
       <c r="Z23" s="53">
-        <v>1483</v>
+        <v>81288</v>
       </c>
       <c r="AA23" s="55">
-        <v>95</v>
+        <v>5128</v>
       </c>
       <c r="AB23" s="57">
-        <v>1389</v>
+        <v>76160</v>
       </c>
       <c r="AC23" s="59">
-        <v>47</v>
+        <v>2510</v>
       </c>
       <c r="AD23" s="61">
-        <v>267</v>
+        <v>14586</v>
       </c>
       <c r="AE23" s="63">
-        <v>-220</v>
+        <v>-12076</v>
       </c>
       <c r="AF23" s="65">
         <v>0</v>
@@ -3940,16 +3940,16 @@
         <v>0</v>
       </c>
       <c r="AI23" s="71">
-        <v>93</v>
+        <v>5141</v>
       </c>
       <c r="AJ23" s="73">
-        <v>87</v>
+        <v>4720</v>
       </c>
       <c r="AK23" s="75">
-        <v>7</v>
+        <v>421</v>
       </c>
       <c r="AL23" s="77">
-        <v>16976</v>
+        <v>925705</v>
       </c>
     </row>
     <row r="24">
@@ -3957,94 +3957,94 @@
         <v>36</v>
       </c>
       <c r="B24" s="5">
-        <v>9961</v>
+        <v>540122</v>
       </c>
       <c r="C24" s="7">
-        <v>6975</v>
+        <v>383944</v>
       </c>
       <c r="D24" s="9">
-        <v>2987</v>
+        <v>156178</v>
       </c>
       <c r="E24" s="11">
-        <v>21693</v>
+        <v>1160978</v>
       </c>
       <c r="F24" s="13">
-        <v>25062</v>
+        <v>1334421</v>
       </c>
       <c r="G24" s="15">
-        <v>-3369</v>
+        <v>-173443</v>
       </c>
       <c r="H24" s="17">
-        <v>1474</v>
+        <v>79915</v>
       </c>
       <c r="I24" s="19">
-        <v>1339</v>
+        <v>72450</v>
       </c>
       <c r="J24" s="21">
-        <v>136</v>
+        <v>7465</v>
       </c>
       <c r="K24" s="23">
-        <v>444</v>
+        <v>22053</v>
       </c>
       <c r="L24" s="25">
-        <v>140</v>
+        <v>7550</v>
       </c>
       <c r="M24" s="27">
-        <v>304</v>
+        <v>14503</v>
       </c>
       <c r="N24" s="29">
-        <v>42</v>
+        <v>2326</v>
       </c>
       <c r="O24" s="31">
-        <v>61</v>
+        <v>3408</v>
       </c>
       <c r="P24" s="33">
-        <v>-18</v>
+        <v>-1082</v>
       </c>
       <c r="Q24" s="35">
-        <v>208</v>
+        <v>11759</v>
       </c>
       <c r="R24" s="37">
-        <v>154</v>
+        <v>8135</v>
       </c>
       <c r="S24" s="39">
-        <v>54</v>
+        <v>3624</v>
       </c>
       <c r="T24" s="41">
-        <v>19</v>
+        <v>1003</v>
       </c>
       <c r="U24" s="43">
-        <v>26</v>
+        <v>1462</v>
       </c>
       <c r="V24" s="45">
-        <v>-7</v>
+        <v>-460</v>
       </c>
       <c r="W24" s="47">
         <v>0</v>
       </c>
       <c r="X24" s="49">
-        <v>29</v>
+        <v>1565</v>
       </c>
       <c r="Y24" s="51">
-        <v>-29</v>
+        <v>-1565</v>
       </c>
       <c r="Z24" s="53">
-        <v>80</v>
+        <v>4081</v>
       </c>
       <c r="AA24" s="55">
-        <v>169</v>
+        <v>9028</v>
       </c>
       <c r="AB24" s="57">
-        <v>-89</v>
+        <v>-4947</v>
       </c>
       <c r="AC24" s="59">
-        <v>680</v>
+        <v>38693</v>
       </c>
       <c r="AD24" s="61">
-        <v>759</v>
+        <v>41301</v>
       </c>
       <c r="AE24" s="63">
-        <v>-79</v>
+        <v>-2608</v>
       </c>
       <c r="AF24" s="65">
         <v>0</v>
@@ -4056,16 +4056,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="71">
-        <v>483</v>
+        <v>22464</v>
       </c>
       <c r="AJ24" s="73">
-        <v>236</v>
+        <v>12664</v>
       </c>
       <c r="AK24" s="75">
-        <v>247</v>
+        <v>9799</v>
       </c>
       <c r="AL24" s="77">
-        <v>33611</v>
+        <v>1803479</v>
       </c>
     </row>
     <row r="25">
@@ -4073,58 +4073,58 @@
         <v>37</v>
       </c>
       <c r="B25" s="5">
-        <v>1194</v>
+        <v>54278</v>
       </c>
       <c r="C25" s="7">
-        <v>807</v>
+        <v>36661</v>
       </c>
       <c r="D25" s="9">
-        <v>387</v>
+        <v>17617</v>
       </c>
       <c r="E25" s="11">
-        <v>4962</v>
+        <v>224527</v>
       </c>
       <c r="F25" s="13">
-        <v>5843</v>
+        <v>264189</v>
       </c>
       <c r="G25" s="15">
-        <v>-881</v>
+        <v>-39662</v>
       </c>
       <c r="H25" s="17">
-        <v>1156</v>
+        <v>52319</v>
       </c>
       <c r="I25" s="19">
-        <v>654</v>
+        <v>29933</v>
       </c>
       <c r="J25" s="21">
-        <v>502</v>
+        <v>22386</v>
       </c>
       <c r="K25" s="23">
-        <v>1068</v>
+        <v>48354</v>
       </c>
       <c r="L25" s="25">
-        <v>110</v>
+        <v>5000</v>
       </c>
       <c r="M25" s="27">
-        <v>958</v>
+        <v>43354</v>
       </c>
       <c r="N25" s="29">
-        <v>11</v>
+        <v>500</v>
       </c>
       <c r="O25" s="31">
-        <v>11</v>
+        <v>507</v>
       </c>
       <c r="P25" s="33">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="Q25" s="35">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="R25" s="37">
-        <v>216</v>
+        <v>9950</v>
       </c>
       <c r="S25" s="39">
-        <v>-213</v>
+        <v>-9809</v>
       </c>
       <c r="T25" s="41">
         <v>0</v>
@@ -4139,28 +4139,28 @@
         <v>0</v>
       </c>
       <c r="X25" s="49">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="Y25" s="51">
-        <v>-1</v>
+        <v>-47</v>
       </c>
       <c r="Z25" s="53">
-        <v>57</v>
+        <v>2552</v>
       </c>
       <c r="AA25" s="55">
-        <v>28</v>
+        <v>1227</v>
       </c>
       <c r="AB25" s="57">
-        <v>29</v>
+        <v>1325</v>
       </c>
       <c r="AC25" s="59">
-        <v>17</v>
+        <v>772</v>
       </c>
       <c r="AD25" s="61">
-        <v>287</v>
+        <v>13202</v>
       </c>
       <c r="AE25" s="63">
-        <v>-270</v>
+        <v>-12430</v>
       </c>
       <c r="AF25" s="65">
         <v>0</v>
@@ -4172,16 +4172,16 @@
         <v>0</v>
       </c>
       <c r="AI25" s="71">
-        <v>17</v>
+        <v>759</v>
       </c>
       <c r="AJ25" s="73">
-        <v>24</v>
+        <v>1100</v>
       </c>
       <c r="AK25" s="75">
-        <v>-8</v>
+        <v>-342</v>
       </c>
       <c r="AL25" s="77">
-        <v>7329</v>
+        <v>331882</v>
       </c>
     </row>
     <row r="26">
@@ -4189,94 +4189,94 @@
         <v>38</v>
       </c>
       <c r="B26" s="5">
-        <v>2006</v>
+        <v>93224</v>
       </c>
       <c r="C26" s="7">
-        <v>1456</v>
+        <v>67135</v>
       </c>
       <c r="D26" s="9">
-        <v>551</v>
+        <v>26089</v>
       </c>
       <c r="E26" s="11">
-        <v>22594</v>
+        <v>1037682</v>
       </c>
       <c r="F26" s="13">
-        <v>23042</v>
+        <v>1060275</v>
       </c>
       <c r="G26" s="15">
-        <v>-447</v>
+        <v>-22593</v>
       </c>
       <c r="H26" s="17">
-        <v>998</v>
+        <v>46783</v>
       </c>
       <c r="I26" s="19">
-        <v>786</v>
+        <v>35610</v>
       </c>
       <c r="J26" s="21">
-        <v>212</v>
+        <v>11174</v>
       </c>
       <c r="K26" s="23">
-        <v>693</v>
+        <v>32911</v>
       </c>
       <c r="L26" s="25">
-        <v>128</v>
+        <v>5789</v>
       </c>
       <c r="M26" s="27">
-        <v>565</v>
+        <v>27122</v>
       </c>
       <c r="N26" s="29">
-        <v>32</v>
+        <v>1522</v>
       </c>
       <c r="O26" s="31">
-        <v>18</v>
+        <v>842</v>
       </c>
       <c r="P26" s="33">
-        <v>14</v>
+        <v>680</v>
       </c>
       <c r="Q26" s="35">
-        <v>89</v>
+        <v>3823</v>
       </c>
       <c r="R26" s="37">
-        <v>175</v>
+        <v>7831</v>
       </c>
       <c r="S26" s="39">
-        <v>-87</v>
+        <v>-4008</v>
       </c>
       <c r="T26" s="41">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U26" s="43">
         <v>0</v>
       </c>
       <c r="V26" s="45">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W26" s="47">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="X26" s="49">
-        <v>15</v>
+        <v>677</v>
       </c>
       <c r="Y26" s="51">
-        <v>-14</v>
+        <v>-648</v>
       </c>
       <c r="Z26" s="53">
-        <v>95</v>
+        <v>4481</v>
       </c>
       <c r="AA26" s="55">
-        <v>191</v>
+        <v>8685</v>
       </c>
       <c r="AB26" s="57">
-        <v>-96</v>
+        <v>-4204</v>
       </c>
       <c r="AC26" s="59">
-        <v>88</v>
+        <v>3998</v>
       </c>
       <c r="AD26" s="61">
-        <v>259</v>
+        <v>11786</v>
       </c>
       <c r="AE26" s="63">
-        <v>-171</v>
+        <v>-7789</v>
       </c>
       <c r="AF26" s="65">
         <v>0</v>
@@ -4288,16 +4288,16 @@
         <v>0</v>
       </c>
       <c r="AI26" s="71">
-        <v>98</v>
+        <v>4490</v>
       </c>
       <c r="AJ26" s="73">
-        <v>413</v>
+        <v>19159</v>
       </c>
       <c r="AK26" s="75">
-        <v>-315</v>
+        <v>-14669</v>
       </c>
       <c r="AL26" s="77">
-        <v>25696</v>
+        <v>1182179</v>
       </c>
     </row>
     <row r="27">
@@ -4305,58 +4305,58 @@
         <v>39</v>
       </c>
       <c r="B27" s="5">
-        <v>1869</v>
+        <v>109198</v>
       </c>
       <c r="C27" s="7">
-        <v>1246</v>
+        <v>74037</v>
       </c>
       <c r="D27" s="9">
-        <v>622</v>
+        <v>35161</v>
       </c>
       <c r="E27" s="11">
-        <v>38928</v>
+        <v>2284464</v>
       </c>
       <c r="F27" s="13">
-        <v>36955</v>
+        <v>2174672</v>
       </c>
       <c r="G27" s="15">
-        <v>1973</v>
+        <v>109792</v>
       </c>
       <c r="H27" s="17">
-        <v>1090</v>
+        <v>64063</v>
       </c>
       <c r="I27" s="19">
-        <v>2435</v>
+        <v>137259</v>
       </c>
       <c r="J27" s="21">
-        <v>-1346</v>
+        <v>-73196</v>
       </c>
       <c r="K27" s="23">
-        <v>132</v>
+        <v>7958</v>
       </c>
       <c r="L27" s="25">
-        <v>414</v>
+        <v>23744</v>
       </c>
       <c r="M27" s="27">
-        <v>-282</v>
+        <v>-15786</v>
       </c>
       <c r="N27" s="29">
-        <v>49</v>
+        <v>2780</v>
       </c>
       <c r="O27" s="31">
-        <v>30</v>
+        <v>1651</v>
       </c>
       <c r="P27" s="33">
-        <v>19</v>
+        <v>1129</v>
       </c>
       <c r="Q27" s="35">
-        <v>162</v>
+        <v>9540</v>
       </c>
       <c r="R27" s="37">
-        <v>552</v>
+        <v>30680</v>
       </c>
       <c r="S27" s="39">
-        <v>-390</v>
+        <v>-21140</v>
       </c>
       <c r="T27" s="41">
         <v>0</v>
@@ -4368,31 +4368,31 @@
         <v>0</v>
       </c>
       <c r="W27" s="47">
-        <v>4</v>
+        <v>197</v>
       </c>
       <c r="X27" s="49">
-        <v>41</v>
+        <v>2312</v>
       </c>
       <c r="Y27" s="51">
-        <v>-38</v>
+        <v>-2114</v>
       </c>
       <c r="Z27" s="53">
-        <v>262</v>
+        <v>15192</v>
       </c>
       <c r="AA27" s="55">
-        <v>141</v>
+        <v>7782</v>
       </c>
       <c r="AB27" s="57">
-        <v>121</v>
+        <v>7410</v>
       </c>
       <c r="AC27" s="59">
-        <v>481</v>
+        <v>28395</v>
       </c>
       <c r="AD27" s="61">
-        <v>1257</v>
+        <v>71090</v>
       </c>
       <c r="AE27" s="63">
-        <v>-776</v>
+        <v>-42695</v>
       </c>
       <c r="AF27" s="65">
         <v>0</v>
@@ -4404,16 +4404,16 @@
         <v>0</v>
       </c>
       <c r="AI27" s="71">
-        <v>271</v>
+        <v>15627</v>
       </c>
       <c r="AJ27" s="73">
-        <v>1520</v>
+        <v>87383</v>
       </c>
       <c r="AK27" s="75">
-        <v>-1249</v>
+        <v>-71756</v>
       </c>
       <c r="AL27" s="77">
-        <v>42157</v>
+        <v>2473352</v>
       </c>
     </row>
     <row r="28">
@@ -4421,94 +4421,94 @@
         <v>40</v>
       </c>
       <c r="B28" s="6">
-        <v>880</v>
+        <v>52531</v>
       </c>
       <c r="C28" s="8">
-        <v>1332</v>
+        <v>80223</v>
       </c>
       <c r="D28" s="10">
-        <v>-451</v>
+        <v>-27692</v>
       </c>
       <c r="E28" s="12">
-        <v>38764</v>
+        <v>2318041</v>
       </c>
       <c r="F28" s="14">
-        <v>34025</v>
+        <v>2035807</v>
       </c>
       <c r="G28" s="16">
-        <v>4739</v>
+        <v>282234</v>
       </c>
       <c r="H28" s="18">
-        <v>1816</v>
+        <v>109293</v>
       </c>
       <c r="I28" s="20">
-        <v>4160</v>
+        <v>248621</v>
       </c>
       <c r="J28" s="22">
-        <v>-2344</v>
+        <v>-139328</v>
       </c>
       <c r="K28" s="24">
-        <v>236</v>
+        <v>14128</v>
       </c>
       <c r="L28" s="26">
-        <v>883</v>
+        <v>52930</v>
       </c>
       <c r="M28" s="28">
-        <v>-647</v>
+        <v>-38802</v>
       </c>
       <c r="N28" s="30">
-        <v>38</v>
+        <v>2224</v>
       </c>
       <c r="O28" s="32">
-        <v>59</v>
+        <v>3520</v>
       </c>
       <c r="P28" s="34">
-        <v>-21</v>
+        <v>-1296</v>
       </c>
       <c r="Q28" s="36">
-        <v>241</v>
+        <v>14541</v>
       </c>
       <c r="R28" s="38">
-        <v>795</v>
+        <v>47482</v>
       </c>
       <c r="S28" s="40">
-        <v>-554</v>
+        <v>-32941</v>
       </c>
       <c r="T28" s="42">
         <v>0</v>
       </c>
       <c r="U28" s="44">
-        <v>39</v>
+        <v>2359</v>
       </c>
       <c r="V28" s="46">
-        <v>-39</v>
+        <v>-2359</v>
       </c>
       <c r="W28" s="48">
-        <v>6</v>
+        <v>315</v>
       </c>
       <c r="X28" s="50">
-        <v>409</v>
+        <v>24553</v>
       </c>
       <c r="Y28" s="52">
-        <v>-403</v>
+        <v>-24237</v>
       </c>
       <c r="Z28" s="54">
-        <v>848</v>
+        <v>50922</v>
       </c>
       <c r="AA28" s="56">
-        <v>41</v>
+        <v>2401</v>
       </c>
       <c r="AB28" s="58">
-        <v>807</v>
+        <v>48521</v>
       </c>
       <c r="AC28" s="60">
-        <v>448</v>
+        <v>27163</v>
       </c>
       <c r="AD28" s="62">
-        <v>1934</v>
+        <v>115377</v>
       </c>
       <c r="AE28" s="64">
-        <v>-1487</v>
+        <v>-88214</v>
       </c>
       <c r="AF28" s="66">
         <v>0</v>
@@ -4520,16 +4520,16 @@
         <v>0</v>
       </c>
       <c r="AI28" s="72">
-        <v>218</v>
+        <v>12884</v>
       </c>
       <c r="AJ28" s="74">
-        <v>2162</v>
+        <v>128098</v>
       </c>
       <c r="AK28" s="76">
-        <v>-1944</v>
+        <v>-115214</v>
       </c>
       <c r="AL28" s="78">
-        <v>41678</v>
+        <v>2492749</v>
       </c>
     </row>
   </sheetData>
